--- a/table.xlsx
+++ b/table.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="208">
   <si>
     <t>ЕгоЧудо</t>
   </si>
@@ -1709,12 +1709,42 @@
     <xf numFmtId="0" fontId="29" fillId="8" borderId="28" xfId="5" applyBorder="1"/>
     <xf numFmtId="20" fontId="18" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1733,40 +1763,10 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2179,10 +2179,10 @@
   </sheetPr>
   <dimension ref="A1:AQ123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="I2" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="K108" sqref="K108"/>
+      <selection pane="bottomLeft" activeCell="Y97" sqref="Y97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2207,81 +2207,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" s="37" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="144" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="157"/>
+      <c r="B1" s="145"/>
       <c r="C1" s="152" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="162"/>
-      <c r="E1" s="160" t="s">
+      <c r="D1" s="153"/>
+      <c r="E1" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="144" t="s">
+      <c r="F1" s="150" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="144" t="s">
+      <c r="G1" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="144" t="s">
+      <c r="H1" s="150" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="144" t="s">
+      <c r="I1" s="150" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="144" t="s">
+      <c r="J1" s="150" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="144" t="s">
+      <c r="K1" s="150" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="144" t="s">
+      <c r="L1" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="144" t="s">
+      <c r="M1" s="150" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="154" t="s">
+      <c r="N1" s="162" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="148" t="s">
+      <c r="O1" s="158" t="s">
         <v>125</v>
       </c>
       <c r="P1" s="152" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="146" t="s">
+      <c r="Q1" s="156" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="147"/>
-      <c r="S1" s="147"/>
-      <c r="T1" s="147"/>
-      <c r="U1" s="147"/>
-      <c r="V1" s="147"/>
-      <c r="W1" s="147"/>
-      <c r="X1" s="147"/>
-      <c r="Y1" s="150" t="s">
+      <c r="R1" s="157"/>
+      <c r="S1" s="157"/>
+      <c r="T1" s="157"/>
+      <c r="U1" s="157"/>
+      <c r="V1" s="157"/>
+      <c r="W1" s="157"/>
+      <c r="X1" s="157"/>
+      <c r="Y1" s="160" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:43" s="37" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="158"/>
-      <c r="B2" s="159"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="145"/>
-      <c r="N2" s="155"/>
-      <c r="O2" s="149"/>
-      <c r="P2" s="153"/>
+      <c r="A2" s="146"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="163"/>
+      <c r="O2" s="159"/>
+      <c r="P2" s="154"/>
       <c r="Q2" s="33" t="s">
         <v>107</v>
       </c>
@@ -2306,7 +2306,7 @@
       <c r="X2" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="Y2" s="151"/>
+      <c r="Y2" s="161"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="C3" s="46">
@@ -8338,7 +8338,7 @@
         <v>0.9819444444444444</v>
       </c>
     </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C97" s="47">
         <v>42838</v>
       </c>
@@ -8377,10 +8377,40 @@
       </c>
       <c r="O97" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.25">
+        <v>2.5694444444444464E-2</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0.93958333333333333</v>
+      </c>
+      <c r="Q97" s="20">
+        <v>0.94097222222222221</v>
+      </c>
+      <c r="R97" s="128" t="s">
+        <v>87</v>
+      </c>
+      <c r="S97" s="20">
+        <v>0.94305555555555554</v>
+      </c>
+      <c r="T97" s="129" t="s">
+        <v>104</v>
+      </c>
+      <c r="U97" s="22">
+        <v>0.9472222222222223</v>
+      </c>
+      <c r="V97" s="130" t="s">
+        <v>88</v>
+      </c>
+      <c r="W97" s="22">
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="X97" s="22">
+        <v>0.95694444444444438</v>
+      </c>
+      <c r="Y97" s="36">
+        <v>0.96527777777777779</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C98" s="47">
         <v>42839</v>
       </c>
@@ -8419,10 +8449,40 @@
       </c>
       <c r="O98" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.25">
+        <v>1.8055555555555602E-2</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0.96180555555555547</v>
+      </c>
+      <c r="Q98" s="20">
+        <v>0.96388888888888891</v>
+      </c>
+      <c r="R98" s="131" t="s">
+        <v>89</v>
+      </c>
+      <c r="S98" s="20">
+        <v>0.96527777777777779</v>
+      </c>
+      <c r="T98" s="129" t="s">
+        <v>87</v>
+      </c>
+      <c r="U98" s="22">
+        <v>0.96805555555555556</v>
+      </c>
+      <c r="V98" s="130" t="s">
+        <v>104</v>
+      </c>
+      <c r="W98" s="22">
+        <v>0.97152777777777777</v>
+      </c>
+      <c r="X98" s="22">
+        <v>0.97569444444444453</v>
+      </c>
+      <c r="Y98" s="36">
+        <v>0.97986111111111107</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C99" s="47">
         <v>42840</v>
       </c>
@@ -8434,7 +8494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C100" s="47">
         <v>42841</v>
       </c>
@@ -8446,7 +8506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C101" s="47">
         <v>42842</v>
       </c>
@@ -8458,7 +8518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C102" s="47">
         <v>42843</v>
       </c>
@@ -8470,7 +8530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C103" s="47">
         <v>42844</v>
       </c>
@@ -8483,7 +8543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C104" s="47">
         <v>42845</v>
       </c>
@@ -8495,7 +8555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C105" s="47">
         <v>42846</v>
       </c>
@@ -8507,7 +8567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C106" s="47">
         <v>42847</v>
       </c>
@@ -8519,7 +8579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C107" s="47">
         <v>42848</v>
       </c>
@@ -8531,7 +8591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C108" s="47">
         <v>42849</v>
       </c>
@@ -8543,7 +8603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C109" s="47">
         <v>42850</v>
       </c>
@@ -8555,7 +8615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C110" s="47">
         <v>42851</v>
       </c>
@@ -8567,7 +8627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C111" s="47">
         <v>42852</v>
       </c>
@@ -8579,7 +8639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C112" s="47">
         <v>42853</v>
       </c>
@@ -8725,22 +8785,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="C1:D2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="N1:N2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A18" r:id="rId1"/>
